--- a/test/reader/dong_ying/farrowing.xlsx
+++ b/test/reader/dong_ying/farrowing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhangyu/Documents/大學/實驗室/種豬資料庫/breeding_DB/test/reader/dong_ying/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544642F5-AB06-CF47-91DD-F4BA68CB0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A59079-8E16-A54B-B581-3FACA59BB442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="920" windowWidth="27860" windowHeight="15020" xr2:uid="{511282A7-2B9E-114D-8C06-7E7AD984A0AD}"/>
   </bookViews>
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB12EACF-B654-D245-8CFB-501FF7704939}">
   <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1690,6 +1690,12 @@
       <c r="H2">
         <v>3</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -1701,6 +1707,9 @@
       </c>
       <c r="N2">
         <v>3</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1731,6 +1740,15 @@
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -1742,6 +1760,9 @@
       </c>
       <c r="N3">
         <v>2</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
       </c>
       <c r="S3">
         <v>12</v>
@@ -1769,9 +1790,18 @@
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>1</v>
       </c>
@@ -1783,6 +1813,9 @@
       </c>
       <c r="N4">
         <v>3</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -1813,6 +1846,18 @@
       <c r="G5">
         <v>2</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>11</v>
       </c>
@@ -1821,6 +1866,9 @@
       </c>
       <c r="N5">
         <v>2</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
       </c>
       <c r="S5">
         <v>9</v>
@@ -1848,8 +1896,20 @@
       <c r="F6">
         <v>6</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6">
         <v>11</v>
@@ -1859,6 +1919,9 @@
       </c>
       <c r="N6">
         <v>1</v>
+      </c>
+      <c r="O6">
+        <v>40</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -1886,6 +1949,21 @@
       <c r="F7">
         <v>4</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>8</v>
       </c>
@@ -1894,6 +1972,9 @@
       </c>
       <c r="N7">
         <v>0</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
       </c>
       <c r="S7">
         <v>8</v>
@@ -1921,6 +2002,21 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
       <c r="L8">
         <v>4</v>
       </c>
@@ -1929,6 +2025,9 @@
       </c>
       <c r="N8">
         <v>0</v>
+      </c>
+      <c r="O8">
+        <v>40</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1959,6 +2058,21 @@
       <c r="F9">
         <v>6</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>9</v>
       </c>
@@ -1968,6 +2082,9 @@
       <c r="N9">
         <v>0</v>
       </c>
+      <c r="O9">
+        <v>40</v>
+      </c>
       <c r="S9">
         <v>9</v>
       </c>
@@ -1997,8 +2114,14 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2011,6 +2134,9 @@
       </c>
       <c r="N10">
         <v>3</v>
+      </c>
+      <c r="O10">
+        <v>40</v>
       </c>
       <c r="S10">
         <v>8</v>
@@ -2038,6 +2164,21 @@
       <c r="F11">
         <v>6</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
       <c r="L11">
         <v>9</v>
       </c>
@@ -2046,6 +2187,9 @@
       </c>
       <c r="N11">
         <v>0</v>
+      </c>
+      <c r="O11">
+        <v>40</v>
       </c>
       <c r="S11">
         <v>9</v>
@@ -2073,6 +2217,18 @@
       <c r="F12">
         <v>4</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
@@ -2084,6 +2240,9 @@
       </c>
       <c r="N12">
         <v>1</v>
+      </c>
+      <c r="O12">
+        <v>40</v>
       </c>
       <c r="S12">
         <v>12</v>
@@ -2123,6 +2282,12 @@
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
       <c r="L13">
         <v>18</v>
       </c>
@@ -2131,6 +2296,9 @@
       </c>
       <c r="N13">
         <v>3</v>
+      </c>
+      <c r="O13">
+        <v>40</v>
       </c>
       <c r="S13">
         <v>15</v>
@@ -2164,6 +2332,15 @@
       <c r="H14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
       <c r="L14">
         <v>13</v>
       </c>
@@ -2172,6 +2349,9 @@
       </c>
       <c r="N14">
         <v>3</v>
+      </c>
+      <c r="O14">
+        <v>40</v>
       </c>
       <c r="S14">
         <v>10</v>
@@ -2199,6 +2379,21 @@
       <c r="F15">
         <v>6</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
       <c r="L15">
         <v>11</v>
       </c>
@@ -2207,6 +2402,9 @@
       </c>
       <c r="N15">
         <v>0</v>
+      </c>
+      <c r="O15">
+        <v>40</v>
       </c>
       <c r="S15">
         <v>11</v>
@@ -2234,6 +2432,21 @@
       <c r="F16">
         <v>3</v>
       </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16">
         <v>7</v>
       </c>
@@ -2242,6 +2455,9 @@
       </c>
       <c r="N16">
         <v>0</v>
+      </c>
+      <c r="O16">
+        <v>40</v>
       </c>
       <c r="S16">
         <v>7</v>
@@ -2272,6 +2488,18 @@
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
       <c r="L17">
         <v>13</v>
       </c>
@@ -2280,6 +2508,9 @@
       </c>
       <c r="N17">
         <v>1</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
       </c>
       <c r="S17">
         <v>12</v>
@@ -2313,8 +2544,14 @@
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2327,6 +2564,9 @@
       </c>
       <c r="N18">
         <v>3</v>
+      </c>
+      <c r="O18">
+        <v>40</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -2354,6 +2594,21 @@
       <c r="F19">
         <v>3</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>9</v>
       </c>
@@ -2362,6 +2617,9 @@
       </c>
       <c r="N19">
         <v>0</v>
+      </c>
+      <c r="O19">
+        <v>40</v>
       </c>
       <c r="S19">
         <v>9</v>
@@ -2392,9 +2650,15 @@
       <c r="G20">
         <v>2</v>
       </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20">
         <v>2</v>
       </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>3</v>
       </c>
@@ -2406,6 +2670,9 @@
       </c>
       <c r="N20">
         <v>7</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
       </c>
       <c r="S20">
         <v>7</v>
@@ -2436,6 +2703,18 @@
       <c r="F21">
         <v>4</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
@@ -2447,6 +2726,9 @@
       </c>
       <c r="N21">
         <v>1</v>
+      </c>
+      <c r="O21">
+        <v>40</v>
       </c>
       <c r="V21" t="s">
         <v>66</v>
@@ -2474,6 +2756,21 @@
       <c r="F22">
         <v>3</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>9</v>
       </c>
@@ -2482,6 +2779,9 @@
       </c>
       <c r="N22">
         <v>0</v>
+      </c>
+      <c r="O22">
+        <v>40</v>
       </c>
       <c r="W22" t="s">
         <v>68</v>
@@ -2509,8 +2809,17 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="I23">
         <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
       </c>
       <c r="L23">
         <v>11</v>
@@ -2520,6 +2829,9 @@
       </c>
       <c r="N23">
         <v>2</v>
+      </c>
+      <c r="O23">
+        <v>40</v>
       </c>
       <c r="W23" t="s">
         <v>70</v>
@@ -2544,6 +2856,21 @@
       <c r="F24">
         <v>5</v>
       </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
       <c r="L24">
         <v>10</v>
       </c>
@@ -2552,6 +2879,9 @@
       </c>
       <c r="N24">
         <v>0</v>
+      </c>
+      <c r="O24">
+        <v>40</v>
       </c>
       <c r="U24" t="s">
         <v>36</v>
@@ -2579,6 +2909,21 @@
       <c r="F25">
         <v>3</v>
       </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
       <c r="L25">
         <v>5</v>
       </c>
@@ -2587,6 +2932,9 @@
       </c>
       <c r="N25">
         <v>0</v>
+      </c>
+      <c r="O25">
+        <v>40</v>
       </c>
       <c r="W25" t="s">
         <v>74</v>
@@ -2611,6 +2959,21 @@
       <c r="F26">
         <v>3</v>
       </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
         <v>8</v>
       </c>
@@ -2619,6 +2982,9 @@
       </c>
       <c r="N26">
         <v>0</v>
+      </c>
+      <c r="O26">
+        <v>40</v>
       </c>
       <c r="W26" t="s">
         <v>76</v>
@@ -2643,6 +3009,18 @@
       <c r="F27">
         <v>2</v>
       </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
       <c r="K27">
         <v>2</v>
       </c>
@@ -2654,6 +3032,9 @@
       </c>
       <c r="N27">
         <v>2</v>
+      </c>
+      <c r="O27">
+        <v>40</v>
       </c>
       <c r="W27" t="s">
         <v>78</v>
@@ -2678,6 +3059,21 @@
       <c r="F28">
         <v>7</v>
       </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <v>13</v>
       </c>
@@ -2686,6 +3082,9 @@
       </c>
       <c r="N28">
         <v>0</v>
+      </c>
+      <c r="O28">
+        <v>40</v>
       </c>
       <c r="W28" t="s">
         <v>80</v>
@@ -2710,6 +3109,21 @@
       <c r="F29">
         <v>9</v>
       </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
       <c r="L29">
         <v>13</v>
       </c>
@@ -2718,6 +3132,9 @@
       </c>
       <c r="N29">
         <v>0</v>
+      </c>
+      <c r="O29">
+        <v>40</v>
       </c>
       <c r="W29" t="s">
         <v>82</v>
@@ -2742,6 +3159,21 @@
       <c r="F30">
         <v>7</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
       <c r="L30">
         <v>11</v>
       </c>
@@ -2750,6 +3182,9 @@
       </c>
       <c r="N30">
         <v>0</v>
+      </c>
+      <c r="O30">
+        <v>40</v>
       </c>
       <c r="U30" t="s">
         <v>85</v>
@@ -2777,6 +3212,18 @@
       <c r="F31">
         <v>5</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
       <c r="K31">
         <v>3</v>
       </c>
@@ -2788,6 +3235,9 @@
       </c>
       <c r="N31">
         <v>3</v>
+      </c>
+      <c r="O31">
+        <v>40</v>
       </c>
       <c r="W31" t="s">
         <v>87</v>
@@ -2815,9 +3265,18 @@
       <c r="G32">
         <v>1</v>
       </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
       <c r="I32">
         <v>2</v>
       </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
       <c r="L32">
         <v>16</v>
       </c>
@@ -2826,6 +3285,9 @@
       </c>
       <c r="N32">
         <v>3</v>
+      </c>
+      <c r="O32">
+        <v>40</v>
       </c>
       <c r="W32" t="s">
         <v>89</v>
@@ -2850,6 +3312,18 @@
       <c r="F33">
         <v>4</v>
       </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
       <c r="K33">
         <v>2</v>
       </c>
@@ -2861,6 +3335,9 @@
       </c>
       <c r="N33">
         <v>2</v>
+      </c>
+      <c r="O33">
+        <v>40</v>
       </c>
       <c r="W33" t="s">
         <v>91</v>
@@ -2885,8 +3362,20 @@
       <c r="F34">
         <v>5</v>
       </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
       <c r="I34">
         <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
       </c>
       <c r="L34">
         <v>15</v>
@@ -2896,6 +3385,9 @@
       </c>
       <c r="N34">
         <v>1</v>
+      </c>
+      <c r="O34">
+        <v>40</v>
       </c>
       <c r="W34" t="s">
         <v>93</v>
@@ -2920,8 +3412,17 @@
       <c r="F35">
         <v>6</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35">
         <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2934,6 +3435,9 @@
       </c>
       <c r="N35">
         <v>3</v>
+      </c>
+      <c r="O35">
+        <v>40</v>
       </c>
       <c r="W35" t="s">
         <v>95</v>
@@ -2961,6 +3465,18 @@
       <c r="G36">
         <v>1</v>
       </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
       <c r="L36">
         <v>11</v>
       </c>
@@ -2969,6 +3485,9 @@
       </c>
       <c r="N36">
         <v>1</v>
+      </c>
+      <c r="O36">
+        <v>40</v>
       </c>
       <c r="W36" t="s">
         <v>97</v>
@@ -2993,8 +3512,17 @@
       <c r="F37">
         <v>5</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
       <c r="H37">
         <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3007,6 +3535,9 @@
       </c>
       <c r="N37">
         <v>2</v>
+      </c>
+      <c r="O37">
+        <v>40</v>
       </c>
       <c r="W37" t="s">
         <v>99</v>
@@ -3031,6 +3562,18 @@
       <c r="F38">
         <v>5</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
@@ -3042,6 +3585,9 @@
       </c>
       <c r="N38">
         <v>1</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
       </c>
       <c r="W38" t="s">
         <v>101</v>
@@ -3069,6 +3615,18 @@
       <c r="G39">
         <v>1</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
       <c r="L39">
         <v>13</v>
       </c>
@@ -3077,6 +3635,9 @@
       </c>
       <c r="N39">
         <v>1</v>
+      </c>
+      <c r="O39">
+        <v>40</v>
       </c>
       <c r="W39" t="s">
         <v>103</v>
@@ -3101,8 +3662,17 @@
       <c r="F40">
         <v>6</v>
       </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
       <c r="I40">
         <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3115,6 +3685,9 @@
       </c>
       <c r="N40">
         <v>2</v>
+      </c>
+      <c r="O40">
+        <v>40</v>
       </c>
       <c r="W40" t="s">
         <v>105</v>
@@ -3139,6 +3712,21 @@
       <c r="F41">
         <v>6</v>
       </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>9</v>
       </c>
@@ -3147,6 +3735,9 @@
       </c>
       <c r="N41">
         <v>0</v>
+      </c>
+      <c r="O41">
+        <v>40</v>
       </c>
       <c r="W41" t="s">
         <v>107</v>
@@ -3171,6 +3762,18 @@
       <c r="F42">
         <v>4</v>
       </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
@@ -3182,6 +3785,9 @@
       </c>
       <c r="N42">
         <v>1</v>
+      </c>
+      <c r="O42">
+        <v>40</v>
       </c>
       <c r="U42" t="s">
         <v>56</v>
@@ -3209,6 +3815,21 @@
       <c r="F43">
         <v>11</v>
       </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
       <c r="L43">
         <v>14</v>
       </c>
@@ -3217,6 +3838,9 @@
       </c>
       <c r="N43">
         <v>0</v>
+      </c>
+      <c r="O43">
+        <v>40</v>
       </c>
       <c r="V43" t="s">
         <v>111</v>
@@ -3247,6 +3871,18 @@
       <c r="G44">
         <v>1</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>13</v>
       </c>
@@ -3255,6 +3891,9 @@
       </c>
       <c r="N44">
         <v>1</v>
+      </c>
+      <c r="O44">
+        <v>40</v>
       </c>
       <c r="W44" t="s">
         <v>113</v>
@@ -3282,6 +3921,15 @@
       <c r="G45">
         <v>1</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
       <c r="K45">
         <v>2</v>
       </c>
@@ -3293,6 +3941,9 @@
       </c>
       <c r="N45">
         <v>3</v>
+      </c>
+      <c r="O45">
+        <v>40</v>
       </c>
       <c r="W45" t="s">
         <v>115</v>
@@ -3320,6 +3971,18 @@
       <c r="G46">
         <v>1</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
       <c r="L46">
         <v>8</v>
       </c>
@@ -3328,6 +3991,9 @@
       </c>
       <c r="N46">
         <v>1</v>
+      </c>
+      <c r="O46">
+        <v>40</v>
       </c>
       <c r="W46" t="s">
         <v>117</v>
@@ -3352,9 +4018,21 @@
       <c r="F47">
         <v>3</v>
       </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="H47">
         <v>2</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
       <c r="L47">
         <v>14</v>
       </c>
@@ -3363,6 +4041,9 @@
       </c>
       <c r="N47">
         <v>2</v>
+      </c>
+      <c r="O47">
+        <v>40</v>
       </c>
       <c r="W47" t="s">
         <v>119</v>
@@ -3393,6 +4074,12 @@
       <c r="H48">
         <v>2</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
@@ -3404,6 +4091,9 @@
       </c>
       <c r="N48">
         <v>4</v>
+      </c>
+      <c r="O48">
+        <v>40</v>
       </c>
       <c r="W48" t="s">
         <v>121</v>
@@ -3428,12 +4118,18 @@
       <c r="F49">
         <v>3</v>
       </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
         <v>2</v>
       </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
       <c r="K49">
         <v>1</v>
       </c>
@@ -3445,6 +4141,9 @@
       </c>
       <c r="N49">
         <v>5</v>
+      </c>
+      <c r="O49">
+        <v>40</v>
       </c>
       <c r="W49" t="s">
         <v>123</v>
@@ -3472,6 +4171,15 @@
       <c r="G50">
         <v>1</v>
       </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
@@ -3483,6 +4191,9 @@
       </c>
       <c r="N50">
         <v>2</v>
+      </c>
+      <c r="O50">
+        <v>40</v>
       </c>
       <c r="V50" t="s">
         <v>126</v>
@@ -3510,8 +4221,17 @@
       <c r="F51">
         <v>1</v>
       </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
       <c r="I51">
         <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -3524,6 +4244,9 @@
       </c>
       <c r="N51">
         <v>3</v>
+      </c>
+      <c r="O51">
+        <v>40</v>
       </c>
       <c r="V51" t="s">
         <v>129</v>
@@ -3554,9 +4277,15 @@
       <c r="G52">
         <v>1</v>
       </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
       <c r="I52">
         <v>2</v>
       </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
@@ -3568,6 +4297,9 @@
       </c>
       <c r="N52">
         <v>4</v>
+      </c>
+      <c r="O52">
+        <v>40</v>
       </c>
       <c r="W52" t="s">
         <v>131</v>
@@ -3595,8 +4327,17 @@
       <c r="G53">
         <v>1</v>
       </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
       <c r="I53">
         <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
       </c>
       <c r="L53">
         <v>12</v>
@@ -3606,6 +4347,9 @@
       </c>
       <c r="N53">
         <v>2</v>
+      </c>
+      <c r="O53">
+        <v>40</v>
       </c>
       <c r="W53" t="s">
         <v>133</v>
@@ -3630,8 +4374,20 @@
       <c r="F54">
         <v>5</v>
       </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
       <c r="I54">
         <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
       </c>
       <c r="L54">
         <v>10</v>
@@ -3641,6 +4397,9 @@
       </c>
       <c r="N54">
         <v>1</v>
+      </c>
+      <c r="O54">
+        <v>40</v>
       </c>
       <c r="W54" t="s">
         <v>135</v>
@@ -3665,6 +4424,21 @@
       <c r="F55">
         <v>6</v>
       </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
       <c r="L55">
         <v>10</v>
       </c>
@@ -3673,6 +4447,9 @@
       </c>
       <c r="N55">
         <v>0</v>
+      </c>
+      <c r="O55">
+        <v>40</v>
       </c>
       <c r="W55" t="s">
         <v>137</v>
@@ -3697,6 +4474,21 @@
       <c r="F56">
         <v>9</v>
       </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
       <c r="L56">
         <v>12</v>
       </c>
@@ -3705,6 +4497,9 @@
       </c>
       <c r="N56">
         <v>0</v>
+      </c>
+      <c r="O56">
+        <v>40</v>
       </c>
       <c r="W56" t="s">
         <v>139</v>
@@ -3729,6 +4524,21 @@
       <c r="F57">
         <v>3</v>
       </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
       <c r="L57">
         <v>10</v>
       </c>
@@ -3737,6 +4547,9 @@
       </c>
       <c r="N57">
         <v>0</v>
+      </c>
+      <c r="O57">
+        <v>40</v>
       </c>
       <c r="W57" t="s">
         <v>141</v>
@@ -3761,6 +4574,18 @@
       <c r="F58">
         <v>6</v>
       </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="K58">
         <v>3</v>
       </c>
@@ -3772,6 +4597,9 @@
       </c>
       <c r="N58">
         <v>3</v>
+      </c>
+      <c r="O58">
+        <v>40</v>
       </c>
       <c r="U58" t="s">
         <v>144</v>
@@ -3799,6 +4627,21 @@
       <c r="F59">
         <v>5</v>
       </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
       <c r="L59">
         <v>12</v>
       </c>
@@ -3807,6 +4650,9 @@
       </c>
       <c r="N59">
         <v>0</v>
+      </c>
+      <c r="O59">
+        <v>40</v>
       </c>
       <c r="U59" t="s">
         <v>85</v>
@@ -3837,6 +4683,15 @@
       <c r="G60">
         <v>1</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
@@ -3848,6 +4703,9 @@
       </c>
       <c r="N60">
         <v>2</v>
+      </c>
+      <c r="O60">
+        <v>40</v>
       </c>
       <c r="W60" t="s">
         <v>148</v>
@@ -3875,6 +4733,18 @@
       <c r="G61">
         <v>1</v>
       </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
       <c r="L61">
         <v>13</v>
       </c>
@@ -3883,6 +4753,9 @@
       </c>
       <c r="N61">
         <v>1</v>
+      </c>
+      <c r="O61">
+        <v>40</v>
       </c>
       <c r="W61" t="s">
         <v>150</v>
@@ -3910,6 +4783,18 @@
       <c r="G62">
         <v>2</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
       <c r="L62">
         <v>11</v>
       </c>
@@ -3918,6 +4803,9 @@
       </c>
       <c r="N62">
         <v>2</v>
+      </c>
+      <c r="O62">
+        <v>40</v>
       </c>
       <c r="W62" t="s">
         <v>152</v>
@@ -3942,6 +4830,21 @@
       <c r="F63">
         <v>5</v>
       </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
       <c r="L63">
         <v>9</v>
       </c>
@@ -3950,6 +4853,9 @@
       </c>
       <c r="N63">
         <v>0</v>
+      </c>
+      <c r="O63">
+        <v>40</v>
       </c>
       <c r="W63" t="s">
         <v>154</v>
@@ -3974,8 +4880,20 @@
       <c r="F64">
         <v>4</v>
       </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
       <c r="I64">
         <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
       </c>
       <c r="L64">
         <v>9</v>
@@ -3985,6 +4903,9 @@
       </c>
       <c r="N64">
         <v>1</v>
+      </c>
+      <c r="O64">
+        <v>40</v>
       </c>
       <c r="W64" t="s">
         <v>156</v>
@@ -4012,6 +4933,18 @@
       <c r="G65">
         <v>1</v>
       </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
       <c r="L65">
         <v>12</v>
       </c>
@@ -4020,6 +4953,9 @@
       </c>
       <c r="N65">
         <v>1</v>
+      </c>
+      <c r="O65">
+        <v>40</v>
       </c>
       <c r="V65" t="s">
         <v>159</v>
@@ -4050,8 +4986,17 @@
       <c r="G66">
         <v>1</v>
       </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
       <c r="I66">
         <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
       </c>
       <c r="L66">
         <v>11</v>
@@ -4061,6 +5006,9 @@
       </c>
       <c r="N66">
         <v>2</v>
+      </c>
+      <c r="O66">
+        <v>40</v>
       </c>
       <c r="W66" t="s">
         <v>161</v>
@@ -4085,6 +5033,21 @@
       <c r="F67">
         <v>4</v>
       </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
       <c r="L67">
         <v>13</v>
       </c>
@@ -4093,6 +5056,9 @@
       </c>
       <c r="N67">
         <v>0</v>
+      </c>
+      <c r="O67">
+        <v>40</v>
       </c>
       <c r="W67" t="s">
         <v>163</v>
@@ -4117,6 +5083,21 @@
       <c r="F68">
         <v>8</v>
       </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <v>16</v>
       </c>
@@ -4125,6 +5106,9 @@
       </c>
       <c r="N68">
         <v>0</v>
+      </c>
+      <c r="O68">
+        <v>40</v>
       </c>
       <c r="W68" t="s">
         <v>119</v>
@@ -4149,6 +5133,15 @@
       <c r="F69">
         <v>4</v>
       </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
       <c r="J69">
         <v>1</v>
       </c>
@@ -4163,6 +5156,9 @@
       </c>
       <c r="N69">
         <v>2</v>
+      </c>
+      <c r="O69">
+        <v>40</v>
       </c>
       <c r="W69" t="s">
         <v>166</v>
@@ -4187,8 +5183,17 @@
       <c r="F70">
         <v>7</v>
       </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
       <c r="I70">
         <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4201,6 +5206,9 @@
       </c>
       <c r="N70">
         <v>2</v>
+      </c>
+      <c r="O70">
+        <v>40</v>
       </c>
       <c r="W70" t="s">
         <v>168</v>
@@ -4225,6 +5233,21 @@
       <c r="F71">
         <v>3</v>
       </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
       <c r="L71">
         <v>11</v>
       </c>
@@ -4233,6 +5256,9 @@
       </c>
       <c r="N71">
         <v>0</v>
+      </c>
+      <c r="O71">
+        <v>40</v>
       </c>
       <c r="W71" t="s">
         <v>170</v>
@@ -4257,6 +5283,21 @@
       <c r="F72">
         <v>6</v>
       </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
       <c r="L72">
         <v>13</v>
       </c>
@@ -4265,6 +5306,9 @@
       </c>
       <c r="N72">
         <v>0</v>
+      </c>
+      <c r="O72">
+        <v>40</v>
       </c>
       <c r="V72" t="s">
         <v>173</v>
@@ -4295,6 +5339,18 @@
       <c r="G73">
         <v>1</v>
       </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
       <c r="L73">
         <v>11</v>
       </c>
@@ -4303,6 +5359,9 @@
       </c>
       <c r="N73">
         <v>1</v>
+      </c>
+      <c r="O73">
+        <v>40</v>
       </c>
       <c r="W73" t="s">
         <v>175</v>
@@ -4327,6 +5386,9 @@
       <c r="F74">
         <v>4</v>
       </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
       <c r="L74">
         <v>4</v>
       </c>
@@ -4335,6 +5397,9 @@
       </c>
       <c r="N74">
         <v>0</v>
+      </c>
+      <c r="O74">
+        <v>40</v>
       </c>
       <c r="W74" t="s">
         <v>177</v>
@@ -4371,6 +5436,9 @@
       <c r="N75">
         <v>1</v>
       </c>
+      <c r="O75">
+        <v>40</v>
+      </c>
       <c r="W75" t="s">
         <v>179</v>
       </c>
@@ -4394,9 +5462,6 @@
       <c r="F76">
         <v>7</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
       <c r="K76">
         <v>1</v>
       </c>
@@ -4408,6 +5473,9 @@
       </c>
       <c r="N76">
         <v>2</v>
+      </c>
+      <c r="O76">
+        <v>40</v>
       </c>
       <c r="W76" t="s">
         <v>181</v>
@@ -4432,6 +5500,9 @@
       <c r="F77">
         <v>3</v>
       </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
       <c r="L77">
         <v>10</v>
       </c>
@@ -4440,6 +5511,9 @@
       </c>
       <c r="N77">
         <v>0</v>
+      </c>
+      <c r="O77">
+        <v>40</v>
       </c>
       <c r="V77" t="s">
         <v>184</v>
@@ -4467,6 +5541,9 @@
       <c r="F78">
         <v>4</v>
       </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
       <c r="L78">
         <v>6</v>
       </c>
@@ -4475,6 +5552,9 @@
       </c>
       <c r="N78">
         <v>0</v>
+      </c>
+      <c r="O78">
+        <v>40</v>
       </c>
       <c r="U78" t="s">
         <v>187</v>
@@ -4502,9 +5582,6 @@
       <c r="F79">
         <v>6</v>
       </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
       <c r="K79">
         <v>1</v>
       </c>
@@ -4516,6 +5593,9 @@
       </c>
       <c r="N79">
         <v>2</v>
+      </c>
+      <c r="O79">
+        <v>40</v>
       </c>
       <c r="W79" t="s">
         <v>189</v>
@@ -4540,8 +5620,8 @@
       <c r="F80">
         <v>2</v>
       </c>
-      <c r="I80">
-        <v>1</v>
+      <c r="K80">
+        <v>0</v>
       </c>
       <c r="L80">
         <v>11</v>
@@ -4551,6 +5631,9 @@
       </c>
       <c r="N80">
         <v>1</v>
+      </c>
+      <c r="O80">
+        <v>40</v>
       </c>
       <c r="W80" t="s">
         <v>191</v>
@@ -4587,6 +5670,9 @@
       <c r="N81">
         <v>1</v>
       </c>
+      <c r="O81">
+        <v>40</v>
+      </c>
       <c r="W81" t="s">
         <v>193</v>
       </c>
@@ -4610,11 +5696,8 @@
       <c r="F82">
         <v>6</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
+      <c r="K82">
+        <v>0</v>
       </c>
       <c r="L82">
         <v>13</v>
@@ -4624,6 +5707,9 @@
       </c>
       <c r="N82">
         <v>2</v>
+      </c>
+      <c r="O82">
+        <v>40</v>
       </c>
       <c r="W82" t="s">
         <v>195</v>
@@ -4660,6 +5746,9 @@
       <c r="N83">
         <v>1</v>
       </c>
+      <c r="O83">
+        <v>40</v>
+      </c>
       <c r="W83" t="s">
         <v>197</v>
       </c>
@@ -4683,8 +5772,17 @@
       <c r="F84">
         <v>4</v>
       </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
       <c r="H84">
         <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -4697,6 +5795,9 @@
       </c>
       <c r="N84">
         <v>2</v>
+      </c>
+      <c r="O84">
+        <v>40</v>
       </c>
       <c r="V84" t="s">
         <v>200</v>
@@ -4724,8 +5825,20 @@
       <c r="F85">
         <v>6</v>
       </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
       <c r="H85">
         <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
       </c>
       <c r="L85">
         <v>14</v>
@@ -4735,6 +5848,9 @@
       </c>
       <c r="N85">
         <v>1</v>
+      </c>
+      <c r="O85">
+        <v>40</v>
       </c>
       <c r="W85" t="s">
         <v>202</v>
@@ -4759,6 +5875,18 @@
       <c r="F86">
         <v>3</v>
       </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
@@ -4770,6 +5898,9 @@
       </c>
       <c r="N86">
         <v>1</v>
+      </c>
+      <c r="O86">
+        <v>40</v>
       </c>
       <c r="W86" t="s">
         <v>204</v>
@@ -4794,9 +5925,18 @@
       <c r="F87">
         <v>7</v>
       </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
       <c r="H87">
         <v>2</v>
       </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
@@ -4808,6 +5948,9 @@
       </c>
       <c r="N87">
         <v>3</v>
+      </c>
+      <c r="O87">
+        <v>40</v>
       </c>
       <c r="W87" t="s">
         <v>206</v>
@@ -4832,6 +5975,21 @@
       <c r="F88">
         <v>4</v>
       </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
       <c r="L88">
         <v>10</v>
       </c>
@@ -4840,6 +5998,9 @@
       </c>
       <c r="N88">
         <v>0</v>
+      </c>
+      <c r="O88">
+        <v>40</v>
       </c>
       <c r="W88" t="s">
         <v>208</v>
@@ -4867,6 +6028,15 @@
       <c r="G89">
         <v>1</v>
       </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
       <c r="K89">
         <v>2</v>
       </c>
@@ -4878,6 +6048,9 @@
       </c>
       <c r="N89">
         <v>3</v>
+      </c>
+      <c r="O89">
+        <v>40</v>
       </c>
       <c r="W89" t="s">
         <v>210</v>
@@ -4905,6 +6078,18 @@
       <c r="G90">
         <v>2</v>
       </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
       <c r="L90">
         <v>14</v>
       </c>
@@ -4913,6 +6098,9 @@
       </c>
       <c r="N90">
         <v>2</v>
+      </c>
+      <c r="O90">
+        <v>40</v>
       </c>
       <c r="W90" t="s">
         <v>212</v>
@@ -4937,6 +6125,18 @@
       <c r="F91">
         <v>5</v>
       </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
@@ -4948,6 +6148,9 @@
       </c>
       <c r="N91">
         <v>1</v>
+      </c>
+      <c r="O91">
+        <v>40</v>
       </c>
       <c r="W91" t="s">
         <v>214</v>
@@ -4975,6 +6178,18 @@
       <c r="G92">
         <v>2</v>
       </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
       <c r="L92">
         <v>14</v>
       </c>
@@ -4983,6 +6198,9 @@
       </c>
       <c r="N92">
         <v>2</v>
+      </c>
+      <c r="O92">
+        <v>40</v>
       </c>
       <c r="W92" t="s">
         <v>216</v>
@@ -5007,6 +6225,21 @@
       <c r="F93">
         <v>5</v>
       </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
       <c r="L93">
         <v>10</v>
       </c>
@@ -5015,6 +6248,9 @@
       </c>
       <c r="N93">
         <v>0</v>
+      </c>
+      <c r="O93">
+        <v>40</v>
       </c>
       <c r="W93" t="s">
         <v>218</v>
@@ -5042,6 +6278,18 @@
       <c r="G94">
         <v>1</v>
       </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
       <c r="L94">
         <v>12</v>
       </c>
@@ -5050,6 +6298,9 @@
       </c>
       <c r="N94">
         <v>1</v>
+      </c>
+      <c r="O94">
+        <v>40</v>
       </c>
       <c r="W94" t="s">
         <v>220</v>
@@ -5074,6 +6325,21 @@
       <c r="F95">
         <v>4</v>
       </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
       <c r="L95">
         <v>14</v>
       </c>
@@ -5082,6 +6348,9 @@
       </c>
       <c r="N95">
         <v>0</v>
+      </c>
+      <c r="O95">
+        <v>40</v>
       </c>
       <c r="W95" t="s">
         <v>222</v>
@@ -5106,6 +6375,21 @@
       <c r="F96">
         <v>8</v>
       </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
       <c r="L96">
         <v>15</v>
       </c>
@@ -5114,6 +6398,9 @@
       </c>
       <c r="N96">
         <v>0</v>
+      </c>
+      <c r="O96">
+        <v>40</v>
       </c>
       <c r="W96" t="s">
         <v>224</v>
@@ -5138,6 +6425,21 @@
       <c r="F97">
         <v>5</v>
       </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
       <c r="L97">
         <v>10</v>
       </c>
@@ -5146,6 +6448,9 @@
       </c>
       <c r="N97">
         <v>0</v>
+      </c>
+      <c r="O97">
+        <v>40</v>
       </c>
       <c r="V97" t="s">
         <v>227</v>
@@ -5173,6 +6478,21 @@
       <c r="F98">
         <v>3</v>
       </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
       <c r="L98">
         <v>5</v>
       </c>
@@ -5181,6 +6501,9 @@
       </c>
       <c r="N98">
         <v>0</v>
+      </c>
+      <c r="O98">
+        <v>40</v>
       </c>
       <c r="W98" t="s">
         <v>229</v>
@@ -5205,6 +6528,18 @@
       <c r="F99">
         <v>2</v>
       </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
       <c r="K99">
         <v>1</v>
       </c>
@@ -5216,6 +6551,9 @@
       </c>
       <c r="N99">
         <v>1</v>
+      </c>
+      <c r="O99">
+        <v>40</v>
       </c>
       <c r="W99" t="s">
         <v>231</v>
@@ -5240,6 +6578,18 @@
       <c r="F100">
         <v>7</v>
       </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
       <c r="K100">
         <v>2</v>
       </c>
@@ -5251,6 +6601,9 @@
       </c>
       <c r="N100">
         <v>2</v>
+      </c>
+      <c r="O100">
+        <v>40</v>
       </c>
       <c r="W100" t="s">
         <v>233</v>
@@ -5275,6 +6628,21 @@
       <c r="F101">
         <v>6</v>
       </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
       <c r="L101">
         <v>13</v>
       </c>
@@ -5283,6 +6651,9 @@
       </c>
       <c r="N101">
         <v>0</v>
+      </c>
+      <c r="O101">
+        <v>40</v>
       </c>
       <c r="W101" t="s">
         <v>235</v>
@@ -5310,6 +6681,18 @@
       <c r="G102">
         <v>2</v>
       </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
       <c r="L102">
         <v>12</v>
       </c>
@@ -5318,6 +6701,9 @@
       </c>
       <c r="N102">
         <v>2</v>
+      </c>
+      <c r="O102">
+        <v>40</v>
       </c>
       <c r="W102" t="s">
         <v>237</v>
@@ -5342,6 +6728,18 @@
       <c r="F103">
         <v>6</v>
       </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
       <c r="K103">
         <v>1</v>
       </c>
@@ -5353,6 +6751,9 @@
       </c>
       <c r="N103">
         <v>1</v>
+      </c>
+      <c r="O103">
+        <v>40</v>
       </c>
       <c r="W103" t="s">
         <v>239</v>
@@ -5380,6 +6781,15 @@
       <c r="G104">
         <v>1</v>
       </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
@@ -5391,6 +6801,9 @@
       </c>
       <c r="N104">
         <v>2</v>
+      </c>
+      <c r="O104">
+        <v>40</v>
       </c>
       <c r="W104" t="s">
         <v>241</v>
@@ -5415,6 +6828,18 @@
       <c r="F105">
         <v>3</v>
       </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
       <c r="K105">
         <v>2</v>
       </c>
@@ -5426,6 +6851,9 @@
       </c>
       <c r="N105">
         <v>2</v>
+      </c>
+      <c r="O105">
+        <v>40</v>
       </c>
       <c r="W105" t="s">
         <v>243</v>
@@ -5450,6 +6878,21 @@
       <c r="F106">
         <v>5</v>
       </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
       <c r="L106">
         <v>14</v>
       </c>
@@ -5458,6 +6901,9 @@
       </c>
       <c r="N106">
         <v>0</v>
+      </c>
+      <c r="O106">
+        <v>40</v>
       </c>
       <c r="V106" t="s">
         <v>246</v>
@@ -5488,6 +6934,18 @@
       <c r="G107">
         <v>1</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
       <c r="L107">
         <v>16</v>
       </c>
@@ -5496,6 +6954,9 @@
       </c>
       <c r="N107">
         <v>1</v>
+      </c>
+      <c r="O107">
+        <v>40</v>
       </c>
       <c r="W107" t="s">
         <v>248</v>
@@ -5520,6 +6981,21 @@
       <c r="F108">
         <v>5</v>
       </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
       <c r="L108">
         <v>11</v>
       </c>
@@ -5528,6 +7004,9 @@
       </c>
       <c r="N108">
         <v>0</v>
+      </c>
+      <c r="O108">
+        <v>40</v>
       </c>
       <c r="W108" t="s">
         <v>250</v>
@@ -5555,6 +7034,18 @@
       <c r="G109">
         <v>2</v>
       </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
       <c r="L109">
         <v>12</v>
       </c>
@@ -5563,6 +7054,9 @@
       </c>
       <c r="N109">
         <v>2</v>
+      </c>
+      <c r="O109">
+        <v>40</v>
       </c>
       <c r="W109" t="s">
         <v>252</v>
@@ -5587,6 +7081,18 @@
       <c r="F110">
         <v>7</v>
       </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
       <c r="K110">
         <v>4</v>
       </c>
@@ -5598,6 +7104,9 @@
       </c>
       <c r="N110">
         <v>4</v>
+      </c>
+      <c r="O110">
+        <v>40</v>
       </c>
       <c r="W110" t="s">
         <v>254</v>
@@ -5622,6 +7131,21 @@
       <c r="F111">
         <v>4</v>
       </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
       <c r="L111">
         <v>12</v>
       </c>
@@ -5630,6 +7154,9 @@
       </c>
       <c r="N111">
         <v>0</v>
+      </c>
+      <c r="O111">
+        <v>40</v>
       </c>
       <c r="W111" t="s">
         <v>256</v>
@@ -5657,6 +7184,18 @@
       <c r="G112">
         <v>1</v>
       </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
       <c r="L112">
         <v>10</v>
       </c>
@@ -5665,6 +7204,9 @@
       </c>
       <c r="N112">
         <v>1</v>
+      </c>
+      <c r="O112">
+        <v>40</v>
       </c>
       <c r="W112" t="s">
         <v>258</v>
@@ -5689,6 +7231,21 @@
       <c r="F113">
         <v>5</v>
       </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
       <c r="L113">
         <v>10</v>
       </c>
@@ -5697,6 +7254,9 @@
       </c>
       <c r="N113">
         <v>0</v>
+      </c>
+      <c r="O113">
+        <v>40</v>
       </c>
       <c r="W113" t="s">
         <v>260</v>
@@ -5721,6 +7281,18 @@
       <c r="F114">
         <v>8</v>
       </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
       <c r="K114">
         <v>2</v>
       </c>
@@ -5732,6 +7304,9 @@
       </c>
       <c r="N114">
         <v>2</v>
+      </c>
+      <c r="O114">
+        <v>40</v>
       </c>
       <c r="W114" t="s">
         <v>262</v>
@@ -5762,6 +7337,15 @@
       <c r="H115">
         <v>2</v>
       </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
       <c r="L115">
         <v>18</v>
       </c>
@@ -5770,6 +7354,9 @@
       </c>
       <c r="N115">
         <v>3</v>
+      </c>
+      <c r="O115">
+        <v>40</v>
       </c>
       <c r="V115" t="s">
         <v>265</v>
@@ -5800,6 +7387,15 @@
       <c r="G116">
         <v>1</v>
       </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
       <c r="K116">
         <v>1</v>
       </c>
@@ -5811,6 +7407,9 @@
       </c>
       <c r="N116">
         <v>2</v>
+      </c>
+      <c r="O116">
+        <v>40</v>
       </c>
       <c r="V116" t="s">
         <v>268</v>
@@ -5841,6 +7440,15 @@
       <c r="G117">
         <v>1</v>
       </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
       <c r="K117">
         <v>3</v>
       </c>
@@ -5852,6 +7460,9 @@
       </c>
       <c r="N117">
         <v>4</v>
+      </c>
+      <c r="O117">
+        <v>40</v>
       </c>
       <c r="V117" t="s">
         <v>271</v>
@@ -5882,6 +7493,18 @@
       <c r="G118">
         <v>1</v>
       </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
       <c r="L118">
         <v>12</v>
       </c>
@@ -5890,6 +7513,9 @@
       </c>
       <c r="N118">
         <v>1</v>
+      </c>
+      <c r="O118">
+        <v>40</v>
       </c>
       <c r="W118" t="s">
         <v>273</v>
@@ -5917,6 +7543,18 @@
       <c r="G119">
         <v>1</v>
       </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
       <c r="L119">
         <v>15</v>
       </c>
@@ -5925,6 +7563,9 @@
       </c>
       <c r="N119">
         <v>1</v>
+      </c>
+      <c r="O119">
+        <v>40</v>
       </c>
       <c r="W119" t="s">
         <v>275</v>
@@ -5949,6 +7590,21 @@
       <c r="F120">
         <v>4</v>
       </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
       <c r="L120">
         <v>15</v>
       </c>
@@ -5957,6 +7613,9 @@
       </c>
       <c r="N120">
         <v>0</v>
+      </c>
+      <c r="O120">
+        <v>40</v>
       </c>
       <c r="W120" t="s">
         <v>277</v>
@@ -5984,6 +7643,18 @@
       <c r="G121">
         <v>1</v>
       </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
       <c r="L121">
         <v>16</v>
       </c>
@@ -5992,6 +7663,9 @@
       </c>
       <c r="N121">
         <v>1</v>
+      </c>
+      <c r="O121">
+        <v>40</v>
       </c>
       <c r="W121" t="s">
         <v>279</v>
@@ -6016,6 +7690,21 @@
       <c r="F122">
         <v>7</v>
       </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
       <c r="L122">
         <v>13</v>
       </c>
@@ -6024,6 +7713,9 @@
       </c>
       <c r="N122">
         <v>0</v>
+      </c>
+      <c r="O122">
+        <v>40</v>
       </c>
       <c r="V122" t="s">
         <v>282</v>
@@ -6054,6 +7746,15 @@
       <c r="G123">
         <v>1</v>
       </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
       <c r="K123">
         <v>3</v>
       </c>
@@ -6065,6 +7766,9 @@
       </c>
       <c r="N123">
         <v>4</v>
+      </c>
+      <c r="O123">
+        <v>40</v>
       </c>
       <c r="V123" t="s">
         <v>285</v>
@@ -6092,6 +7796,18 @@
       <c r="F124">
         <v>6</v>
       </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
       <c r="K124">
         <v>1</v>
       </c>
@@ -6103,6 +7819,9 @@
       </c>
       <c r="N124">
         <v>1</v>
+      </c>
+      <c r="O124">
+        <v>40</v>
       </c>
       <c r="W124" t="s">
         <v>287</v>
@@ -6127,6 +7846,21 @@
       <c r="F125">
         <v>5</v>
       </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
       <c r="L125">
         <v>13</v>
       </c>
@@ -6135,6 +7869,9 @@
       </c>
       <c r="N125">
         <v>0</v>
+      </c>
+      <c r="O125">
+        <v>40</v>
       </c>
       <c r="W125" t="s">
         <v>289</v>
@@ -6159,6 +7896,18 @@
       <c r="F126">
         <v>6</v>
       </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
       <c r="K126">
         <v>3</v>
       </c>
@@ -6170,6 +7919,9 @@
       </c>
       <c r="N126">
         <v>3</v>
+      </c>
+      <c r="O126">
+        <v>40</v>
       </c>
       <c r="V126" t="s">
         <v>292</v>
@@ -6197,8 +7949,20 @@
       <c r="F127">
         <v>6</v>
       </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
       <c r="H127">
         <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
       </c>
       <c r="L127">
         <v>13</v>
@@ -6208,6 +7972,9 @@
       </c>
       <c r="N127">
         <v>1</v>
+      </c>
+      <c r="O127">
+        <v>40</v>
       </c>
       <c r="W127" t="s">
         <v>294</v>
@@ -6232,6 +7999,21 @@
       <c r="F128">
         <v>2</v>
       </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
       <c r="L128">
         <v>6</v>
       </c>
@@ -6240,6 +8022,9 @@
       </c>
       <c r="N128">
         <v>0</v>
+      </c>
+      <c r="O128">
+        <v>40</v>
       </c>
       <c r="W128" t="s">
         <v>296</v>
@@ -6264,6 +8049,21 @@
       <c r="F129">
         <v>7</v>
       </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
       <c r="L129">
         <v>11</v>
       </c>
@@ -6272,6 +8072,9 @@
       </c>
       <c r="N129">
         <v>0</v>
+      </c>
+      <c r="O129">
+        <v>40</v>
       </c>
       <c r="W129" t="s">
         <v>298</v>
@@ -6299,6 +8102,18 @@
       <c r="G130">
         <v>2</v>
       </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
       <c r="L130">
         <v>13</v>
       </c>
@@ -6307,6 +8122,9 @@
       </c>
       <c r="N130">
         <v>2</v>
+      </c>
+      <c r="O130">
+        <v>40</v>
       </c>
       <c r="W130" t="s">
         <v>300</v>
@@ -6331,6 +8149,21 @@
       <c r="F131">
         <v>3</v>
       </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
       <c r="L131">
         <v>3</v>
       </c>
@@ -6339,6 +8172,9 @@
       </c>
       <c r="N131">
         <v>0</v>
+      </c>
+      <c r="O131">
+        <v>40</v>
       </c>
       <c r="W131" t="s">
         <v>302</v>
@@ -6363,6 +8199,18 @@
       <c r="F132">
         <v>7</v>
       </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
       <c r="K132">
         <v>2</v>
       </c>
@@ -6374,6 +8222,9 @@
       </c>
       <c r="N132">
         <v>2</v>
+      </c>
+      <c r="O132">
+        <v>40</v>
       </c>
       <c r="W132" t="s">
         <v>304</v>
@@ -6401,6 +8252,18 @@
       <c r="G133">
         <v>2</v>
       </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
       <c r="L133">
         <v>12</v>
       </c>
@@ -6409,6 +8272,9 @@
       </c>
       <c r="N133">
         <v>2</v>
+      </c>
+      <c r="O133">
+        <v>40</v>
       </c>
       <c r="W133" t="s">
         <v>306</v>
@@ -6436,6 +8302,15 @@
       <c r="G134">
         <v>1</v>
       </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
       <c r="K134">
         <v>2</v>
       </c>
@@ -6447,6 +8322,9 @@
       </c>
       <c r="N134">
         <v>3</v>
+      </c>
+      <c r="O134">
+        <v>40</v>
       </c>
       <c r="W134" t="s">
         <v>308</v>
@@ -6471,9 +8349,21 @@
       <c r="F135">
         <v>6</v>
       </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
       <c r="H135">
         <v>2</v>
       </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
       <c r="L135">
         <v>12</v>
       </c>
@@ -6482,6 +8372,9 @@
       </c>
       <c r="N135">
         <v>2</v>
+      </c>
+      <c r="O135">
+        <v>40</v>
       </c>
       <c r="W135" t="s">
         <v>310</v>
@@ -6509,6 +8402,15 @@
       <c r="G136">
         <v>1</v>
       </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
       <c r="K136">
         <v>1</v>
       </c>
@@ -6520,6 +8422,9 @@
       </c>
       <c r="N136">
         <v>2</v>
+      </c>
+      <c r="O136">
+        <v>40</v>
       </c>
       <c r="W136" t="s">
         <v>312</v>
@@ -6544,9 +8449,21 @@
       <c r="F137">
         <v>7</v>
       </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
       <c r="H137">
         <v>3</v>
       </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
       <c r="L137">
         <v>14</v>
       </c>
@@ -6555,6 +8472,9 @@
       </c>
       <c r="N137">
         <v>3</v>
+      </c>
+      <c r="O137">
+        <v>40</v>
       </c>
       <c r="W137" t="s">
         <v>314</v>
@@ -6582,6 +8502,18 @@
       <c r="G138">
         <v>1</v>
       </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
       <c r="L138">
         <v>12</v>
       </c>
@@ -6590,6 +8522,9 @@
       </c>
       <c r="N138">
         <v>1</v>
+      </c>
+      <c r="O138">
+        <v>40</v>
       </c>
       <c r="W138" t="s">
         <v>316</v>
@@ -6617,6 +8552,15 @@
       <c r="G139">
         <v>2</v>
       </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
       <c r="K139">
         <v>1</v>
       </c>
@@ -6628,6 +8572,9 @@
       </c>
       <c r="N139">
         <v>3</v>
+      </c>
+      <c r="O139">
+        <v>40</v>
       </c>
       <c r="W139" t="s">
         <v>318</v>
@@ -6652,9 +8599,21 @@
       <c r="F140">
         <v>8</v>
       </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
       <c r="H140">
         <v>2</v>
       </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
       <c r="L140">
         <v>16</v>
       </c>
@@ -6663,6 +8622,9 @@
       </c>
       <c r="N140">
         <v>2</v>
+      </c>
+      <c r="O140">
+        <v>40</v>
       </c>
       <c r="W140" t="s">
         <v>320</v>
@@ -6687,6 +8649,18 @@
       <c r="F141">
         <v>6</v>
       </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
       <c r="K141">
         <v>1</v>
       </c>
@@ -6698,6 +8672,9 @@
       </c>
       <c r="N141">
         <v>1</v>
+      </c>
+      <c r="O141">
+        <v>40</v>
       </c>
       <c r="W141" t="s">
         <v>322</v>
@@ -6722,6 +8699,18 @@
       <c r="F142">
         <v>8</v>
       </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
       <c r="K142">
         <v>1</v>
       </c>
@@ -6733,6 +8722,9 @@
       </c>
       <c r="N142">
         <v>1</v>
+      </c>
+      <c r="O142">
+        <v>40</v>
       </c>
       <c r="W142" t="s">
         <v>324</v>
@@ -6757,6 +8749,21 @@
       <c r="F143">
         <v>7</v>
       </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
       <c r="L143">
         <v>14</v>
       </c>
@@ -6765,6 +8772,9 @@
       </c>
       <c r="N143">
         <v>0</v>
+      </c>
+      <c r="O143">
+        <v>40</v>
       </c>
       <c r="W143" t="s">
         <v>296</v>
@@ -6792,6 +8802,18 @@
       <c r="G144">
         <v>1</v>
       </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
       <c r="L144">
         <v>11</v>
       </c>
@@ -6800,6 +8822,9 @@
       </c>
       <c r="N144">
         <v>1</v>
+      </c>
+      <c r="O144">
+        <v>40</v>
       </c>
       <c r="W144" t="s">
         <v>327</v>
@@ -6824,6 +8849,21 @@
       <c r="F145">
         <v>5</v>
       </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
       <c r="L145">
         <v>10</v>
       </c>
@@ -6832,6 +8872,9 @@
       </c>
       <c r="N145">
         <v>0</v>
+      </c>
+      <c r="O145">
+        <v>40</v>
       </c>
       <c r="V145" t="s">
         <v>330</v>
@@ -6862,6 +8905,18 @@
       <c r="G146">
         <v>2</v>
       </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
       <c r="L146">
         <v>17</v>
       </c>
@@ -6870,6 +8925,9 @@
       </c>
       <c r="N146">
         <v>2</v>
+      </c>
+      <c r="O146">
+        <v>40</v>
       </c>
       <c r="W146" t="s">
         <v>332</v>
@@ -6897,6 +8955,15 @@
       <c r="G147">
         <v>1</v>
       </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
       <c r="K147">
         <v>1</v>
       </c>
@@ -6908,6 +8975,9 @@
       </c>
       <c r="N147">
         <v>2</v>
+      </c>
+      <c r="O147">
+        <v>40</v>
       </c>
       <c r="W147" t="s">
         <v>334</v>
@@ -6935,6 +9005,15 @@
       <c r="G148">
         <v>1</v>
       </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
       <c r="K148">
         <v>1</v>
       </c>
@@ -6946,6 +9025,9 @@
       </c>
       <c r="N148">
         <v>2</v>
+      </c>
+      <c r="O148">
+        <v>40</v>
       </c>
       <c r="W148" t="s">
         <v>336</v>
@@ -6976,6 +9058,15 @@
       <c r="H149">
         <v>1</v>
       </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
       <c r="L149">
         <v>15</v>
       </c>
@@ -6984,6 +9075,9 @@
       </c>
       <c r="N149">
         <v>2</v>
+      </c>
+      <c r="O149">
+        <v>40</v>
       </c>
       <c r="W149" t="s">
         <v>338</v>
@@ -7008,6 +9102,21 @@
       <c r="F150">
         <v>7</v>
       </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
       <c r="L150">
         <v>12</v>
       </c>
@@ -7016,6 +9125,9 @@
       </c>
       <c r="N150">
         <v>0</v>
+      </c>
+      <c r="O150">
+        <v>40</v>
       </c>
       <c r="W150" t="s">
         <v>340</v>
@@ -7040,9 +9152,21 @@
       <c r="F151">
         <v>9</v>
       </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
       <c r="H151">
         <v>2</v>
       </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
       <c r="L151">
         <v>14</v>
       </c>
@@ -7051,6 +9175,9 @@
       </c>
       <c r="N151">
         <v>2</v>
+      </c>
+      <c r="O151">
+        <v>40</v>
       </c>
       <c r="W151" t="s">
         <v>342</v>
@@ -7081,6 +9208,15 @@
       <c r="H152">
         <v>1</v>
       </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
       <c r="L152">
         <v>13</v>
       </c>
@@ -7089,6 +9225,9 @@
       </c>
       <c r="N152">
         <v>3</v>
+      </c>
+      <c r="O152">
+        <v>40</v>
       </c>
       <c r="W152" t="s">
         <v>344</v>
@@ -7116,6 +9255,15 @@
       <c r="G153">
         <v>1</v>
       </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
       <c r="K153">
         <v>2</v>
       </c>
@@ -7127,6 +9275,9 @@
       </c>
       <c r="N153">
         <v>3</v>
+      </c>
+      <c r="O153">
+        <v>40</v>
       </c>
       <c r="W153" t="s">
         <v>346</v>
@@ -7154,6 +9305,15 @@
       <c r="G154">
         <v>1</v>
       </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
       <c r="K154">
         <v>1</v>
       </c>
@@ -7165,6 +9325,9 @@
       </c>
       <c r="N154">
         <v>2</v>
+      </c>
+      <c r="O154">
+        <v>40</v>
       </c>
       <c r="W154" t="s">
         <v>348</v>
@@ -7189,6 +9352,18 @@
       <c r="F155">
         <v>6</v>
       </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
       <c r="K155">
         <v>1</v>
       </c>
@@ -7200,6 +9375,9 @@
       </c>
       <c r="N155">
         <v>1</v>
+      </c>
+      <c r="O155">
+        <v>40</v>
       </c>
       <c r="V155" t="s">
         <v>351</v>
@@ -7230,6 +9408,15 @@
       <c r="G156">
         <v>3</v>
       </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
       <c r="K156">
         <v>1</v>
       </c>
@@ -7241,6 +9428,9 @@
       </c>
       <c r="N156">
         <v>4</v>
+      </c>
+      <c r="O156">
+        <v>40</v>
       </c>
       <c r="W156" t="s">
         <v>353</v>
@@ -7265,6 +9455,21 @@
       <c r="F157">
         <v>4</v>
       </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
       <c r="L157">
         <v>9</v>
       </c>
@@ -7273,6 +9478,9 @@
       </c>
       <c r="N157">
         <v>0</v>
+      </c>
+      <c r="O157">
+        <v>40</v>
       </c>
       <c r="W157" t="s">
         <v>355</v>
@@ -7303,6 +9511,15 @@
       <c r="H158">
         <v>3</v>
       </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
       <c r="L158">
         <v>14</v>
       </c>
@@ -7311,6 +9528,9 @@
       </c>
       <c r="N158">
         <v>4</v>
+      </c>
+      <c r="O158">
+        <v>40</v>
       </c>
       <c r="W158" t="s">
         <v>357</v>
@@ -7338,6 +9558,15 @@
       <c r="G159">
         <v>1</v>
       </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
       <c r="K159">
         <v>1</v>
       </c>
@@ -7349,6 +9578,9 @@
       </c>
       <c r="N159">
         <v>2</v>
+      </c>
+      <c r="O159">
+        <v>40</v>
       </c>
       <c r="W159" t="s">
         <v>359</v>
@@ -7373,9 +9605,21 @@
       <c r="F160">
         <v>7</v>
       </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
       <c r="H160">
         <v>3</v>
       </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
       <c r="L160">
         <v>11</v>
       </c>
@@ -7384,6 +9628,9 @@
       </c>
       <c r="N160">
         <v>3</v>
+      </c>
+      <c r="O160">
+        <v>40</v>
       </c>
       <c r="W160" t="s">
         <v>361</v>
@@ -7411,6 +9658,18 @@
       <c r="G161">
         <v>1</v>
       </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
       <c r="L161">
         <v>11</v>
       </c>
@@ -7419,6 +9678,9 @@
       </c>
       <c r="N161">
         <v>1</v>
+      </c>
+      <c r="O161">
+        <v>40</v>
       </c>
       <c r="W161" t="s">
         <v>363</v>
@@ -7443,6 +9705,21 @@
       <c r="F162">
         <v>4</v>
       </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
       <c r="L162">
         <v>10</v>
       </c>
@@ -7451,6 +9728,9 @@
       </c>
       <c r="N162">
         <v>0</v>
+      </c>
+      <c r="O162">
+        <v>40</v>
       </c>
       <c r="W162" t="s">
         <v>365</v>
@@ -7475,8 +9755,20 @@
       <c r="F163">
         <v>6</v>
       </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
       <c r="H163">
         <v>1</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
       </c>
       <c r="L163">
         <v>12</v>
@@ -7486,6 +9778,9 @@
       </c>
       <c r="N163">
         <v>1</v>
+      </c>
+      <c r="O163">
+        <v>40</v>
       </c>
       <c r="W163" t="s">
         <v>367</v>
@@ -7510,6 +9805,21 @@
       <c r="F164">
         <v>10</v>
       </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
       <c r="L164">
         <v>13</v>
       </c>
@@ -7518,6 +9828,9 @@
       </c>
       <c r="N164">
         <v>0</v>
+      </c>
+      <c r="O164">
+        <v>40</v>
       </c>
       <c r="W164" t="s">
         <v>369</v>
@@ -7542,8 +9855,17 @@
       <c r="F165">
         <v>2</v>
       </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
       <c r="H165">
         <v>1</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -7556,6 +9878,9 @@
       </c>
       <c r="N165">
         <v>3</v>
+      </c>
+      <c r="O165">
+        <v>40</v>
       </c>
       <c r="W165" t="s">
         <v>371</v>
@@ -7583,6 +9908,15 @@
       <c r="G166">
         <v>1</v>
       </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
       <c r="K166">
         <v>1</v>
       </c>
@@ -7594,6 +9928,9 @@
       </c>
       <c r="N166">
         <v>2</v>
+      </c>
+      <c r="O166">
+        <v>40</v>
       </c>
       <c r="V166" t="s">
         <v>374</v>
@@ -7621,8 +9958,17 @@
       <c r="F167">
         <v>4</v>
       </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
       <c r="H167">
         <v>1</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
       </c>
       <c r="K167">
         <v>1</v>
@@ -7635,6 +9981,9 @@
       </c>
       <c r="N167">
         <v>2</v>
+      </c>
+      <c r="O167">
+        <v>40</v>
       </c>
       <c r="W167" t="s">
         <v>376</v>
@@ -7665,6 +10014,12 @@
       <c r="H168">
         <v>1</v>
       </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
       <c r="K168">
         <v>1</v>
       </c>
@@ -7676,6 +10031,9 @@
       </c>
       <c r="N168">
         <v>3</v>
+      </c>
+      <c r="O168">
+        <v>40</v>
       </c>
       <c r="W168" t="s">
         <v>378</v>
@@ -7703,6 +10061,15 @@
       <c r="G169">
         <v>2</v>
       </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
       <c r="K169">
         <v>1</v>
       </c>
@@ -7714,6 +10081,9 @@
       </c>
       <c r="N169">
         <v>3</v>
+      </c>
+      <c r="O169">
+        <v>40</v>
       </c>
       <c r="W169" t="s">
         <v>380</v>
@@ -7738,6 +10108,18 @@
       <c r="F170">
         <v>4</v>
       </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
       <c r="K170">
         <v>1</v>
       </c>
@@ -7749,6 +10131,9 @@
       </c>
       <c r="N170">
         <v>1</v>
+      </c>
+      <c r="O170">
+        <v>40</v>
       </c>
       <c r="V170" t="s">
         <v>383</v>
@@ -7776,6 +10161,21 @@
       <c r="F171">
         <v>5</v>
       </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
       <c r="L171">
         <v>10</v>
       </c>
@@ -7784,6 +10184,9 @@
       </c>
       <c r="N171">
         <v>0</v>
+      </c>
+      <c r="O171">
+        <v>40</v>
       </c>
       <c r="W171" t="s">
         <v>385</v>
@@ -7808,6 +10211,18 @@
       <c r="F172">
         <v>3</v>
       </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
       <c r="K172">
         <v>1</v>
       </c>
@@ -7819,6 +10234,9 @@
       </c>
       <c r="N172">
         <v>1</v>
+      </c>
+      <c r="O172">
+        <v>40</v>
       </c>
       <c r="V172" t="s">
         <v>388</v>
@@ -7852,6 +10270,12 @@
       <c r="H173">
         <v>1</v>
       </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
       <c r="K173">
         <v>1</v>
       </c>
@@ -7863,6 +10287,9 @@
       </c>
       <c r="N173">
         <v>3</v>
+      </c>
+      <c r="O173">
+        <v>40</v>
       </c>
       <c r="V173" t="s">
         <v>391</v>
@@ -7890,6 +10317,18 @@
       <c r="F174">
         <v>8</v>
       </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
       <c r="K174">
         <v>1</v>
       </c>
@@ -7901,6 +10340,9 @@
       </c>
       <c r="N174">
         <v>1</v>
+      </c>
+      <c r="O174">
+        <v>40</v>
       </c>
       <c r="V174" t="s">
         <v>394</v>
@@ -7928,6 +10370,21 @@
       <c r="F175">
         <v>3</v>
       </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
       <c r="L175">
         <v>3</v>
       </c>
@@ -7936,6 +10393,9 @@
       </c>
       <c r="N175">
         <v>0</v>
+      </c>
+      <c r="O175">
+        <v>40</v>
       </c>
       <c r="W175" t="s">
         <v>396</v>
